--- a/exps/Summary.xlsx
+++ b/exps/Summary.xlsx
@@ -67,7 +67,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +104,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -132,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -154,6 +160,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,19 +427,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>4.0824829046386291E-2</c:v>
+                    <c:v>3.1258861170106823E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.12256517540566793</c:v>
+                    <c:v>3.3600067013181624E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.16213848676020418</c:v>
+                    <c:v>7.0442833678279089E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.12256517540566854</c:v>
+                    <c:v>7.737013226280693E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.10614455552060481</c:v>
+                    <c:v>1.0760320583364362E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -442,19 +451,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>4.0824829046386291E-2</c:v>
+                    <c:v>3.1258861170106823E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.12256517540566793</c:v>
+                    <c:v>3.3600067013181624E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.16213848676020418</c:v>
+                    <c:v>7.0442833678279089E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.12256517540566854</c:v>
+                    <c:v>7.737013226280693E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.10614455552060481</c:v>
+                    <c:v>1.0760320583364362E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -503,19 +512,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.66</c:v>
+                  <c:v>0.85532963345466673</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78333333333333333</c:v>
+                  <c:v>0.96702898550733318</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65333333333333332</c:v>
+                  <c:v>0.95652173913066674</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65333333333333332</c:v>
+                  <c:v>0.93913043478266667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.73999999999999988</c:v>
+                  <c:v>0.92282608695666679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1237,16 +1246,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>385762</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>738187</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1534,7 +1543,7 @@
   <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,21 +1578,21 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>0.71</v>
+        <v>0.81120884439999996</v>
       </c>
       <c r="C3" s="1">
-        <v>0.66</v>
+        <v>0.87500432423399999</v>
       </c>
       <c r="D3" s="1">
-        <v>0.61</v>
+        <v>0.87977573173000001</v>
       </c>
       <c r="E3" s="7">
         <f>(B3+C3+D3)/3</f>
-        <v>0.66</v>
+        <v>0.85532963345466673</v>
       </c>
       <c r="F3" s="7">
         <f>_xlfn.STDEV.P(B3:D3)</f>
-        <v>4.0824829046386291E-2</v>
+        <v>3.1258861170106823E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1591,21 +1600,21 @@
         <v>5</v>
       </c>
       <c r="B4" s="5">
-        <v>0.87</v>
+        <v>0.96521739130399997</v>
       </c>
       <c r="C4" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.61</v>
+        <v>0.97173913043500004</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.96413043478299998</v>
       </c>
       <c r="E4" s="8">
         <f t="shared" ref="E4:E7" si="0">(B4+C4+D4)/3</f>
-        <v>0.78333333333333333</v>
+        <v>0.96702898550733318</v>
       </c>
       <c r="F4" s="7">
         <f t="shared" ref="F4:F7" si="1">_xlfn.STDEV.P(B4:D4)</f>
-        <v>0.12256517540566793</v>
+        <v>3.3600067013181624E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1613,21 +1622,21 @@
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.61</v>
+        <v>0.94673913043500002</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.96304347826100001</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.95978260869599996</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" si="0"/>
-        <v>0.65333333333333332</v>
+        <v>0.95652173913066674</v>
       </c>
       <c r="F5" s="7">
         <f t="shared" si="1"/>
-        <v>0.16213848676020418</v>
+        <v>7.0442833678279089E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1635,21 +1644,21 @@
         <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.74</v>
+        <v>0.92826086956499998</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.94565217391300005</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.94347826086999997</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="0"/>
-        <v>0.65333333333333332</v>
+        <v>0.93913043478266667</v>
       </c>
       <c r="F6" s="7">
         <f t="shared" si="1"/>
-        <v>0.12256517540566854</v>
+        <v>7.737013226280693E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1657,21 +1666,21 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.61</v>
+        <v>0.90869565217399995</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.93478260869600005</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.92500000000000004</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="0"/>
-        <v>0.73999999999999988</v>
+        <v>0.92282608695666679</v>
       </c>
       <c r="F7" s="7">
         <f t="shared" si="1"/>
-        <v>0.10614455552060481</v>
+        <v>1.0760320583364362E-2</v>
       </c>
     </row>
   </sheetData>
